--- a/R-NLP/nflx_nrc.xlsx
+++ b/R-NLP/nflx_nrc.xlsx
@@ -446,10 +446,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>44279.91666666667</v>
+        <v>44280.54166666667</v>
       </c>
       <c r="B2">
-        <v>-0.4676517815562943</v>
+        <v>-0.4676517815562942</v>
       </c>
       <c r="C2" s="3">
         <v>44280</v>
@@ -497,10 +497,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>44279.95833333333</v>
+        <v>44280.58333333333</v>
       </c>
       <c r="B3">
-        <v>-0.5651174644406521</v>
+        <v>-0.565117464440652</v>
       </c>
       <c r="C3" s="3">
         <v>44280</v>
@@ -548,10 +548,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>44280</v>
+        <v>44280.625</v>
       </c>
       <c r="B4">
-        <v>-0.6728143516056916</v>
+        <v>-0.6728143516056915</v>
       </c>
       <c r="C4" s="3">
         <v>44280</v>
@@ -599,10 +599,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>44280.04166666667</v>
+        <v>44280.66666666667</v>
       </c>
       <c r="B5">
-        <v>-0.9334408185450888</v>
+        <v>-0.9334408185450886</v>
       </c>
       <c r="C5" s="3">
         <v>44280</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>44280.08333333333</v>
+        <v>44280.70833333333</v>
       </c>
       <c r="B6">
         <v>-1.241992400272925</v>
@@ -701,10 +701,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>44280.125</v>
+        <v>44280.75</v>
       </c>
       <c r="B7">
-        <v>-1.177374267973902</v>
+        <v>-1.177374267973901</v>
       </c>
       <c r="C7" s="3">
         <v>44280</v>
@@ -752,10 +752,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>44280.16666666667</v>
+        <v>44280.79166666667</v>
       </c>
       <c r="B8">
-        <v>-1.318457190160104</v>
+        <v>-1.318457190160103</v>
       </c>
       <c r="C8" s="3">
         <v>44280</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>44280.20833333333</v>
+        <v>44280.83333333333</v>
       </c>
       <c r="B9">
         <v>-1.721243548157352</v>
@@ -854,10 +854,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>44280.25</v>
+        <v>44280.875</v>
       </c>
       <c r="B10">
-        <v>-1.453616783552228</v>
+        <v>-1.453616783552227</v>
       </c>
       <c r="C10" s="3">
         <v>44280</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>44280.29166666667</v>
+        <v>44280.91666666667</v>
       </c>
       <c r="B11">
         <v>-1.43423134386252</v>
@@ -956,7 +956,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>44280.33333333333</v>
+        <v>44280.95833333333</v>
       </c>
       <c r="B12">
         <v>-1.43423134386252</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>44280.375</v>
+        <v>44281</v>
       </c>
       <c r="B13">
         <v>-1.348612318566315</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>44280.41666666667</v>
+        <v>44281.04166666667</v>
       </c>
       <c r="B14">
         <v>-1.319534159031753</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>44280.45833333333</v>
+        <v>44281.08333333333</v>
       </c>
       <c r="B15">
         <v>-1.43423134386252</v>
@@ -1160,10 +1160,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>44280.79166666667</v>
+        <v>44281.41666666667</v>
       </c>
       <c r="B16">
-        <v>-1.238223009222149</v>
+        <v>-1.238223009222148</v>
       </c>
       <c r="C16" s="3">
         <v>44281</v>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>44280.91666666667</v>
+        <v>44281.54166666667</v>
       </c>
       <c r="B17">
         <v>-1.507465227134747</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>44280.95833333333</v>
+        <v>44281.58333333333</v>
       </c>
       <c r="B18">
         <v>-1.491310694059991</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>44281</v>
+        <v>44281.625</v>
       </c>
       <c r="B19">
         <v>-1.372844118178448</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>44281.04166666667</v>
+        <v>44281.66666666667</v>
       </c>
       <c r="B20">
         <v>-1.380921384715825</v>
@@ -1415,10 +1415,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>44281.08333333333</v>
+        <v>44281.70833333333</v>
       </c>
       <c r="B21">
-        <v>-1.470848285498634</v>
+        <v>-1.470848285498633</v>
       </c>
       <c r="C21" s="3">
         <v>44281</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>44281.125</v>
+        <v>44281.75</v>
       </c>
       <c r="B22">
         <v>-1.332996269927383</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <v>44281.16666666667</v>
+        <v>44281.79166666667</v>
       </c>
       <c r="B23">
         <v>-1.408384090942912</v>
@@ -1568,10 +1568,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>44281.20833333333</v>
+        <v>44281.83333333333</v>
       </c>
       <c r="B24">
-        <v>-1.62162392752969</v>
+        <v>-1.621623927529689</v>
       </c>
       <c r="C24" s="3">
         <v>44281</v>
@@ -1619,10 +1619,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>44281.25</v>
+        <v>44281.875</v>
       </c>
       <c r="B25">
-        <v>-1.421307717402715</v>
+        <v>-1.421307717402714</v>
       </c>
       <c r="C25" s="3">
         <v>44281</v>
@@ -1670,10 +1670,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>44281.29166666667</v>
+        <v>44281.91666666667</v>
       </c>
       <c r="B26">
-        <v>-1.154757921669243</v>
+        <v>-1.154757921669242</v>
       </c>
       <c r="C26" s="3">
         <v>44281</v>
@@ -1721,10 +1721,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>44281.33333333333</v>
+        <v>44281.95833333333</v>
       </c>
       <c r="B27">
-        <v>-1.154757921669243</v>
+        <v>-1.154757921669242</v>
       </c>
       <c r="C27" s="3">
         <v>44281</v>
@@ -1772,10 +1772,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>44281.375</v>
+        <v>44282</v>
       </c>
       <c r="B28">
-        <v>-1.318457190160104</v>
+        <v>-1.318457190160103</v>
       </c>
       <c r="C28" s="3">
         <v>44281</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>44281.41666666667</v>
+        <v>44282.04166666667</v>
       </c>
       <c r="B29">
         <v>-1.318995674595928</v>
@@ -1874,10 +1874,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>44281.45833333333</v>
+        <v>44282.08333333333</v>
       </c>
       <c r="B30">
-        <v>-1.154757921669243</v>
+        <v>-1.154757921669242</v>
       </c>
       <c r="C30" s="3">
         <v>44281</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>44283.83333333333</v>
+        <v>44284.45833333333</v>
       </c>
       <c r="B31">
         <v>-1.281301764088165</v>
@@ -1976,10 +1976,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <v>44283.91666666667</v>
+        <v>44284.54166666667</v>
       </c>
       <c r="B32">
-        <v>-1.24253088470875</v>
+        <v>-1.242530884708749</v>
       </c>
       <c r="C32" s="3">
         <v>44284</v>
@@ -2027,10 +2027,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2">
-        <v>44283.95833333333</v>
+        <v>44284.58333333333</v>
       </c>
       <c r="B33">
-        <v>-1.272686013114961</v>
+        <v>-1.27268601311496</v>
       </c>
       <c r="C33" s="3">
         <v>44284</v>
@@ -2078,10 +2078,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2">
-        <v>44284</v>
+        <v>44284.625</v>
       </c>
       <c r="B34">
-        <v>-1.329765363312432</v>
+        <v>-1.329765363312431</v>
       </c>
       <c r="C34" s="3">
         <v>44284</v>
@@ -2129,10 +2129,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <v>44284.04166666667</v>
+        <v>44284.66666666667</v>
       </c>
       <c r="B35">
-        <v>-1.211837271866714</v>
+        <v>-1.211837271866713</v>
       </c>
       <c r="C35" s="3">
         <v>44284</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2">
-        <v>44284.08333333333</v>
+        <v>44284.70833333333</v>
       </c>
       <c r="B36">
         <v>-1.051368909990804</v>
@@ -2231,10 +2231,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <v>44284.125</v>
+        <v>44284.75</v>
       </c>
       <c r="B37">
-        <v>-1.005328490727752</v>
+        <v>-1.005328490727751</v>
       </c>
       <c r="C37" s="3">
         <v>44284</v>
@@ -2282,10 +2282,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2">
-        <v>44284.16666666667</v>
+        <v>44284.79166666667</v>
       </c>
       <c r="B38">
-        <v>-0.788050020872283</v>
+        <v>-0.7880500208722829</v>
       </c>
       <c r="C38" s="3">
         <v>44284</v>
@@ -2333,10 +2333,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <v>44284.20833333333</v>
+        <v>44284.83333333333</v>
       </c>
       <c r="B39">
-        <v>-0.9555186804139202</v>
+        <v>-0.95551868041392</v>
       </c>
       <c r="C39" s="3">
         <v>44284</v>
@@ -2384,10 +2384,10 @@
     </row>
     <row r="40">
       <c r="A40" s="2">
-        <v>44284.25</v>
+        <v>44284.875</v>
       </c>
       <c r="B40">
-        <v>-0.8370521045323743</v>
+        <v>-0.8370521045323741</v>
       </c>
       <c r="C40" s="3">
         <v>44284</v>
@@ -2435,10 +2435,10 @@
     </row>
     <row r="41">
       <c r="A41" s="2">
-        <v>44284.29166666667</v>
+        <v>44284.91666666667</v>
       </c>
       <c r="B41">
-        <v>-0.8370521045323743</v>
+        <v>-0.8370521045323741</v>
       </c>
       <c r="C41" s="3">
         <v>44284</v>
@@ -2486,10 +2486,10 @@
     </row>
     <row r="42">
       <c r="A42" s="2">
-        <v>44284.33333333333</v>
+        <v>44284.95833333333</v>
       </c>
       <c r="B42">
-        <v>-0.8343596823532508</v>
+        <v>-0.8343596823532506</v>
       </c>
       <c r="C42" s="3">
         <v>44284</v>
@@ -2537,10 +2537,10 @@
     </row>
     <row r="43">
       <c r="A43" s="2">
-        <v>44284.375</v>
+        <v>44285</v>
       </c>
       <c r="B43">
-        <v>-0.8348981667890755</v>
+        <v>-0.8348981667890754</v>
       </c>
       <c r="C43" s="3">
         <v>44284</v>
@@ -2588,10 +2588,10 @@
     </row>
     <row r="44">
       <c r="A44" s="2">
-        <v>44284.45833333333</v>
+        <v>44285.08333333333</v>
       </c>
       <c r="B44">
-        <v>-0.8370521045323743</v>
+        <v>-0.8370521045323741</v>
       </c>
       <c r="C44" s="3">
         <v>44284</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2">
-        <v>44284.91666666667</v>
+        <v>44285.54166666667</v>
       </c>
       <c r="B45">
         <v>-1.103601900265849</v>
@@ -2690,7 +2690,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2">
-        <v>44284.95833333333</v>
+        <v>44285.58333333333</v>
       </c>
       <c r="B46">
         <v>-1.052445878862456</v>
@@ -2741,7 +2741,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2">
-        <v>44285</v>
+        <v>44285.625</v>
       </c>
       <c r="B47">
         <v>-1.034137408044398</v>
@@ -2792,7 +2792,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2">
-        <v>44285.04166666667</v>
+        <v>44285.66666666667</v>
       </c>
       <c r="B48">
         <v>-1.113833104546528</v>
@@ -2843,7 +2843,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2">
-        <v>44285.08333333333</v>
+        <v>44285.70833333333</v>
       </c>
       <c r="B49">
         <v>-1.038983767966826</v>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2">
-        <v>44285.125</v>
+        <v>44285.75</v>
       </c>
       <c r="B50">
         <v>-1.066984958629736</v>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2">
-        <v>44285.16666666667</v>
+        <v>44285.79166666667</v>
       </c>
       <c r="B51">
         <v>-1.055138301041583</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2">
-        <v>44285.20833333333</v>
+        <v>44285.83333333333</v>
       </c>
       <c r="B52">
         <v>-1.001289857459063</v>
@@ -3047,10 +3047,10 @@
     </row>
     <row r="53">
       <c r="A53" s="2">
-        <v>44285.25</v>
+        <v>44285.875</v>
       </c>
       <c r="B53">
-        <v>-0.8628993574519848</v>
+        <v>-0.8628993574519845</v>
       </c>
       <c r="C53" s="3">
         <v>44285</v>
@@ -3098,10 +3098,10 @@
     </row>
     <row r="54">
       <c r="A54" s="2">
-        <v>44285.29166666667</v>
+        <v>44285.91666666667</v>
       </c>
       <c r="B54">
-        <v>-0.8672072329385885</v>
+        <v>-0.8672072329385884</v>
       </c>
       <c r="C54" s="3">
         <v>44285</v>
@@ -3149,10 +3149,10 @@
     </row>
     <row r="55">
       <c r="A55" s="2">
-        <v>44285.33333333333</v>
+        <v>44285.95833333333</v>
       </c>
       <c r="B55">
-        <v>-0.9226711298285823</v>
+        <v>-0.9226711298285822</v>
       </c>
       <c r="C55" s="3">
         <v>44285</v>
@@ -3200,10 +3200,10 @@
     </row>
     <row r="56">
       <c r="A56" s="2">
-        <v>44285.375</v>
+        <v>44286</v>
       </c>
       <c r="B56">
-        <v>-0.8672072329385885</v>
+        <v>-0.8672072329385884</v>
       </c>
       <c r="C56" s="3">
         <v>44285</v>
@@ -3251,10 +3251,10 @@
     </row>
     <row r="57">
       <c r="A57" s="2">
-        <v>44285.41666666667</v>
+        <v>44286.04166666667</v>
       </c>
       <c r="B57">
-        <v>-0.8672072329385885</v>
+        <v>-0.8672072329385884</v>
       </c>
       <c r="C57" s="3">
         <v>44285</v>
@@ -3302,10 +3302,10 @@
     </row>
     <row r="58">
       <c r="A58" s="2">
-        <v>44285.45833333333</v>
+        <v>44286.08333333333</v>
       </c>
       <c r="B58">
-        <v>-0.8672072329385885</v>
+        <v>-0.8672072329385884</v>
       </c>
       <c r="C58" s="3">
         <v>44285</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2">
-        <v>44285.83333333333</v>
+        <v>44286.45833333333</v>
       </c>
       <c r="B59">
         <v>-1.024983172635372</v>
@@ -3404,10 +3404,10 @@
     </row>
     <row r="60">
       <c r="A60" s="2">
-        <v>44285.91666666667</v>
+        <v>44286.54166666667</v>
       </c>
       <c r="B60">
-        <v>-0.780511238770731</v>
+        <v>-0.7805112387707309</v>
       </c>
       <c r="C60" s="3">
         <v>44286</v>
@@ -3455,10 +3455,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2">
-        <v>44285.95833333333</v>
+        <v>44286.58333333333</v>
       </c>
       <c r="B61">
-        <v>-0.8672072329385885</v>
+        <v>-0.8672072329385884</v>
       </c>
       <c r="C61" s="3">
         <v>44286</v>
@@ -3506,10 +3506,10 @@
     </row>
     <row r="62">
       <c r="A62" s="2">
-        <v>44286</v>
+        <v>44286.625</v>
       </c>
       <c r="B62">
-        <v>-0.727201279624036</v>
+        <v>-0.7272012796240359</v>
       </c>
       <c r="C62" s="3">
         <v>44286</v>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2">
-        <v>44286.04166666667</v>
+        <v>44286.66666666667</v>
       </c>
       <c r="B63">
         <v>-0.4302271132664404</v>
@@ -3608,10 +3608,10 @@
     </row>
     <row r="64">
       <c r="A64" s="2">
-        <v>44286.08333333333</v>
+        <v>44286.70833333333</v>
       </c>
       <c r="B64">
-        <v>-0.2851055578115471</v>
+        <v>-0.285105557811547</v>
       </c>
       <c r="C64" s="3">
         <v>44286</v>
@@ -3659,10 +3659,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2">
-        <v>44286.125</v>
+        <v>44286.75</v>
       </c>
       <c r="B65">
-        <v>-0.2463346784321375</v>
+        <v>-0.2463346784321374</v>
       </c>
       <c r="C65" s="3">
         <v>44286</v>
@@ -3710,10 +3710,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2">
-        <v>44286.16666666667</v>
+        <v>44286.79166666667</v>
       </c>
       <c r="B66">
-        <v>-0.1052517562459356</v>
+        <v>-0.1052517562459355</v>
       </c>
       <c r="C66" s="3">
         <v>44286</v>
@@ -3761,7 +3761,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2">
-        <v>44286.20833333333</v>
+        <v>44286.83333333333</v>
       </c>
       <c r="B67">
         <v>-0.2011019858228192</v>
@@ -3812,10 +3812,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2">
-        <v>44286.25</v>
+        <v>44286.875</v>
       </c>
       <c r="B68">
-        <v>-0.3847251784392098</v>
+        <v>-0.3847251784392097</v>
       </c>
       <c r="C68" s="3">
         <v>44286</v>
@@ -3863,10 +3863,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2">
-        <v>44286.29166666667</v>
+        <v>44286.91666666667</v>
       </c>
       <c r="B69">
-        <v>-0.4218806045111513</v>
+        <v>-0.4218806045111512</v>
       </c>
       <c r="C69" s="3">
         <v>44286</v>
@@ -3914,7 +3914,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2">
-        <v>44286.33333333333</v>
+        <v>44286.95833333333</v>
       </c>
       <c r="B70">
         <v>-0.3981872893348397</v>
@@ -3965,10 +3965,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2">
-        <v>44286.375</v>
+        <v>44287</v>
       </c>
       <c r="B71">
-        <v>-0.4218806045111513</v>
+        <v>-0.4218806045111512</v>
       </c>
       <c r="C71" s="3">
         <v>44286</v>
@@ -4016,10 +4016,10 @@
     </row>
     <row r="72">
       <c r="A72" s="2">
-        <v>44286.41666666667</v>
+        <v>44287.04166666667</v>
       </c>
       <c r="B72">
-        <v>-0.4035721336930929</v>
+        <v>-0.4035721336930928</v>
       </c>
       <c r="C72" s="3">
         <v>44286</v>
@@ -4067,10 +4067,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2">
-        <v>44286.45833333333</v>
+        <v>44287.08333333333</v>
       </c>
       <c r="B73">
-        <v>-0.4218806045111513</v>
+        <v>-0.4218806045111512</v>
       </c>
       <c r="C73" s="3">
         <v>44286</v>
@@ -4118,10 +4118,10 @@
     </row>
     <row r="74">
       <c r="A74" s="2">
-        <v>44286.83333333333</v>
+        <v>44287.45833333333</v>
       </c>
       <c r="B74">
-        <v>-0.05140331266341583</v>
+        <v>-0.05140331266341581</v>
       </c>
       <c r="C74" s="3">
         <v>44287</v>
@@ -4169,10 +4169,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2">
-        <v>44286.91666666667</v>
+        <v>44287.54166666667</v>
       </c>
       <c r="B75">
-        <v>-0.08101995663379923</v>
+        <v>-0.08101995663379921</v>
       </c>
       <c r="C75" s="3">
         <v>44287</v>
@@ -4220,10 +4220,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2">
-        <v>44286.95833333333</v>
+        <v>44287.58333333333</v>
       </c>
       <c r="B76">
-        <v>-0.0322332667480391</v>
+        <v>-0.03223326674803909</v>
       </c>
       <c r="C76" s="3">
         <v>44287</v>
@@ -4271,10 +4271,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2">
-        <v>44287</v>
+        <v>44287.625</v>
       </c>
       <c r="B77">
-        <v>0.02559996165959082</v>
+        <v>0.02559996165959081</v>
       </c>
       <c r="C77" s="3">
         <v>44287</v>
@@ -4322,7 +4322,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2">
-        <v>44287.04166666667</v>
+        <v>44287.66666666667</v>
       </c>
       <c r="B78">
         <v>0.1306044266455006</v>
@@ -4373,7 +4373,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2">
-        <v>44287.08333333333</v>
+        <v>44287.70833333333</v>
       </c>
       <c r="B79">
         <v>0.158605617308416</v>
@@ -4424,10 +4424,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2">
-        <v>44287.125</v>
+        <v>44287.75</v>
       </c>
       <c r="B80">
-        <v>0.289995819649761</v>
+        <v>0.2899958196497609</v>
       </c>
       <c r="C80" s="3">
         <v>44287</v>
@@ -4475,7 +4475,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2">
-        <v>44287.16666666667</v>
+        <v>44287.79166666667</v>
       </c>
       <c r="B81">
         <v>0.2264546562223904</v>
@@ -4526,10 +4526,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2">
-        <v>44287.20833333333</v>
+        <v>44287.83333333333</v>
       </c>
       <c r="B82">
-        <v>0.4106163332746057</v>
+        <v>0.4106163332746056</v>
       </c>
       <c r="C82" s="3">
         <v>44287</v>
@@ -4577,7 +4577,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2">
-        <v>44287.25</v>
+        <v>44287.875</v>
       </c>
       <c r="B83">
         <v>0.4267708663493591</v>
@@ -4628,10 +4628,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2">
-        <v>44287.29166666667</v>
+        <v>44287.91666666667</v>
       </c>
       <c r="B84">
-        <v>0.5344677535143986</v>
+        <v>0.5344677535143985</v>
       </c>
       <c r="C84" s="3">
         <v>44287</v>
@@ -4679,10 +4679,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2">
-        <v>44287.33333333333</v>
+        <v>44287.95833333333</v>
       </c>
       <c r="B85">
-        <v>0.541468051180126</v>
+        <v>0.5414680511801259</v>
       </c>
       <c r="C85" s="3">
         <v>44287</v>
@@ -4730,10 +4730,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2">
-        <v>44287.375</v>
+        <v>44288</v>
       </c>
       <c r="B86">
-        <v>0.5344677535143986</v>
+        <v>0.5344677535143985</v>
       </c>
       <c r="C86" s="3">
         <v>44287</v>
@@ -4781,10 +4781,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2">
-        <v>44287.41666666667</v>
+        <v>44288.04166666667</v>
       </c>
       <c r="B87">
-        <v>0.5522377398966323</v>
+        <v>0.5522377398966322</v>
       </c>
       <c r="C87" s="3">
         <v>44287</v>
@@ -4832,10 +4832,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2">
-        <v>44287.45833333333</v>
+        <v>44288.08333333333</v>
       </c>
       <c r="B88">
-        <v>0.5344677535143986</v>
+        <v>0.5344677535143985</v>
       </c>
       <c r="C88" s="3">
         <v>44287</v>
@@ -4883,10 +4883,10 @@
     </row>
     <row r="89">
       <c r="A89" s="2">
-        <v>44290.79166666667</v>
+        <v>44291.41666666667</v>
       </c>
       <c r="B89">
-        <v>0.7293991192831203</v>
+        <v>0.7293991192831202</v>
       </c>
       <c r="C89" s="3">
         <v>44291</v>
@@ -4934,10 +4934,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2">
-        <v>44290.91666666667</v>
+        <v>44291.54166666667</v>
       </c>
       <c r="B90">
-        <v>0.5656998507922623</v>
+        <v>0.5656998507922621</v>
       </c>
       <c r="C90" s="3">
         <v>44291</v>
@@ -4985,10 +4985,10 @@
     </row>
     <row r="91">
       <c r="A91" s="2">
-        <v>44290.95833333333</v>
+        <v>44291.58333333333</v>
       </c>
       <c r="B91">
-        <v>0.560315006434009</v>
+        <v>0.5603150064340089</v>
       </c>
       <c r="C91" s="3">
         <v>44291</v>
@@ -5036,10 +5036,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2">
-        <v>44291</v>
+        <v>44291.625</v>
       </c>
       <c r="B92">
-        <v>0.5770080239445934</v>
+        <v>0.5770080239445933</v>
       </c>
       <c r="C92" s="3">
         <v>44291</v>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2">
-        <v>44291.04166666667</v>
+        <v>44291.66666666667</v>
       </c>
       <c r="B93">
         <v>0.2716873488317025</v>
@@ -5138,10 +5138,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2">
-        <v>44291.08333333333</v>
+        <v>44291.70833333333</v>
       </c>
       <c r="B94">
-        <v>0.4133087554537292</v>
+        <v>0.4133087554537291</v>
       </c>
       <c r="C94" s="3">
         <v>44291</v>
@@ -5189,7 +5189,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2">
-        <v>44291.125</v>
+        <v>44291.75</v>
       </c>
       <c r="B95">
         <v>0.4582722058451351</v>
@@ -5240,10 +5240,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2">
-        <v>44291.16666666667</v>
+        <v>44291.79166666667</v>
       </c>
       <c r="B96">
-        <v>0.5576225842548855</v>
+        <v>0.5576225842548854</v>
       </c>
       <c r="C96" s="3">
         <v>44291</v>
@@ -5291,10 +5291,10 @@
     </row>
     <row r="97">
       <c r="A97" s="2">
-        <v>44291.20833333333</v>
+        <v>44291.83333333333</v>
       </c>
       <c r="B97">
-        <v>0.5802389305595416</v>
+        <v>0.5802389305595415</v>
       </c>
       <c r="C97" s="3">
         <v>44291</v>
@@ -5342,10 +5342,10 @@
     </row>
     <row r="98">
       <c r="A98" s="2">
-        <v>44291.25</v>
+        <v>44291.875</v>
       </c>
       <c r="B98">
-        <v>0.6028552768642038</v>
+        <v>0.6028552768642037</v>
       </c>
       <c r="C98" s="3">
         <v>44291</v>
@@ -5393,10 +5393,10 @@
     </row>
     <row r="99">
       <c r="A99" s="2">
-        <v>44291.29166666667</v>
+        <v>44291.91666666667</v>
       </c>
       <c r="B99">
-        <v>0.6017783079925483</v>
+        <v>0.6017783079925482</v>
       </c>
       <c r="C99" s="3">
         <v>44291</v>
@@ -5444,10 +5444,10 @@
     </row>
     <row r="100">
       <c r="A100" s="2">
-        <v>44291.33333333333</v>
+        <v>44291.95833333333</v>
       </c>
       <c r="B100">
-        <v>0.6198713850362756</v>
+        <v>0.6198713850362755</v>
       </c>
       <c r="C100" s="3">
         <v>44291</v>
@@ -5495,10 +5495,10 @@
     </row>
     <row r="101">
       <c r="A101" s="2">
-        <v>44291.375</v>
+        <v>44292</v>
       </c>
       <c r="B101">
-        <v>0.6017783079925483</v>
+        <v>0.6017783079925482</v>
       </c>
       <c r="C101" s="3">
         <v>44291</v>
@@ -5546,10 +5546,10 @@
     </row>
     <row r="102">
       <c r="A102" s="2">
-        <v>44291.45833333333</v>
+        <v>44292.08333333333</v>
       </c>
       <c r="B102">
-        <v>0.6017783079925483</v>
+        <v>0.6017783079925482</v>
       </c>
       <c r="C102" s="3">
         <v>44291</v>
@@ -5597,10 +5597,10 @@
     </row>
     <row r="103">
       <c r="A103" s="2">
-        <v>44291.79166666667</v>
+        <v>44292.41666666667</v>
       </c>
       <c r="B103">
-        <v>0.8360190375765103</v>
+        <v>0.8360190375765102</v>
       </c>
       <c r="C103" s="3">
         <v>44292</v>
@@ -5648,10 +5648,10 @@
     </row>
     <row r="104">
       <c r="A104" s="2">
-        <v>44291.83333333333</v>
+        <v>44292.45833333333</v>
       </c>
       <c r="B104">
-        <v>0.7234757904890423</v>
+        <v>0.7234757904890422</v>
       </c>
       <c r="C104" s="3">
         <v>44292</v>
@@ -5699,10 +5699,10 @@
     </row>
     <row r="105">
       <c r="A105" s="2">
-        <v>44291.875</v>
+        <v>44292.5</v>
       </c>
       <c r="B105">
-        <v>0.7267066971039967</v>
+        <v>0.7267066971039966</v>
       </c>
       <c r="C105" s="3">
         <v>44292</v>
@@ -5750,10 +5750,10 @@
     </row>
     <row r="106">
       <c r="A106" s="2">
-        <v>44291.91666666667</v>
+        <v>44292.54166666667</v>
       </c>
       <c r="B106">
-        <v>0.7191679150024447</v>
+        <v>0.7191679150024446</v>
       </c>
       <c r="C106" s="3">
         <v>44292</v>
@@ -5801,10 +5801,10 @@
     </row>
     <row r="107">
       <c r="A107" s="2">
-        <v>44291.95833333333</v>
+        <v>44292.58333333333</v>
       </c>
       <c r="B107">
-        <v>0.7541694033310813</v>
+        <v>0.7541694033310812</v>
       </c>
       <c r="C107" s="3">
         <v>44292</v>
@@ -5852,10 +5852,10 @@
     </row>
     <row r="108">
       <c r="A108" s="2">
-        <v>44292</v>
+        <v>44292.625</v>
       </c>
       <c r="B108">
-        <v>0.808017846913601</v>
+        <v>0.8080178469136009</v>
       </c>
       <c r="C108" s="3">
         <v>44292</v>
@@ -5903,7 +5903,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2">
-        <v>44292.04166666667</v>
+        <v>44292.66666666667</v>
       </c>
       <c r="B109">
         <v>1.004564665989797</v>
@@ -5954,10 +5954,10 @@
     </row>
     <row r="110">
       <c r="A110" s="2">
-        <v>44292.08333333333</v>
+        <v>44292.70833333333</v>
       </c>
       <c r="B110">
-        <v>1.063528711712658</v>
+        <v>1.063528711712657</v>
       </c>
       <c r="C110" s="3">
         <v>44292</v>
@@ -6005,10 +6005,10 @@
     </row>
     <row r="111">
       <c r="A111" s="2">
-        <v>44292.125</v>
+        <v>44292.75</v>
       </c>
       <c r="B111">
-        <v>0.9264844227951469</v>
+        <v>0.9264844227951468</v>
       </c>
       <c r="C111" s="3">
         <v>44292</v>
@@ -6056,10 +6056,10 @@
     </row>
     <row r="112">
       <c r="A112" s="2">
-        <v>44292.16666666667</v>
+        <v>44292.79166666667</v>
       </c>
       <c r="B112">
-        <v>0.8607893216244713</v>
+        <v>0.8607893216244712</v>
       </c>
       <c r="C112" s="3">
         <v>44292</v>
@@ -6107,10 +6107,10 @@
     </row>
     <row r="113">
       <c r="A113" s="2">
-        <v>44292.20833333333</v>
+        <v>44292.83333333333</v>
       </c>
       <c r="B113">
-        <v>0.9754865064552382</v>
+        <v>0.9754865064552379</v>
       </c>
       <c r="C113" s="3">
         <v>44292</v>
@@ -6158,10 +6158,10 @@
     </row>
     <row r="114">
       <c r="A114" s="2">
-        <v>44292.25</v>
+        <v>44292.875</v>
       </c>
       <c r="B114">
-        <v>0.977640444198537</v>
+        <v>0.9776404441985368</v>
       </c>
       <c r="C114" s="3">
         <v>44292</v>
@@ -6209,10 +6209,10 @@
     </row>
     <row r="115">
       <c r="A115" s="2">
-        <v>44292.29166666667</v>
+        <v>44292.91666666667</v>
       </c>
       <c r="B115">
-        <v>0.8096333002210752</v>
+        <v>0.809633300221075</v>
       </c>
       <c r="C115" s="3">
         <v>44292</v>
@@ -6260,10 +6260,10 @@
     </row>
     <row r="116">
       <c r="A116" s="2">
-        <v>44292.33333333333</v>
+        <v>44292.95833333333</v>
       </c>
       <c r="B116">
-        <v>0.7891708916597179</v>
+        <v>0.7891708916597178</v>
       </c>
       <c r="C116" s="3">
         <v>44292</v>
@@ -6311,10 +6311,10 @@
     </row>
     <row r="117">
       <c r="A117" s="2">
-        <v>44292.375</v>
+        <v>44293</v>
       </c>
       <c r="B117">
-        <v>0.8096333002210752</v>
+        <v>0.809633300221075</v>
       </c>
       <c r="C117" s="3">
         <v>44292</v>
@@ -6362,10 +6362,10 @@
     </row>
     <row r="118">
       <c r="A118" s="2">
-        <v>44292.45833333333</v>
+        <v>44293.08333333333</v>
       </c>
       <c r="B118">
-        <v>0.8096333002210752</v>
+        <v>0.809633300221075</v>
       </c>
       <c r="C118" s="3">
         <v>44292</v>
@@ -6413,10 +6413,10 @@
     </row>
     <row r="119">
       <c r="A119" s="2">
-        <v>44292.95833333333</v>
+        <v>44293.58333333333</v>
       </c>
       <c r="B119">
-        <v>0.7746318118924386</v>
+        <v>0.7746318118924385</v>
       </c>
       <c r="C119" s="3">
         <v>44293</v>
@@ -6464,10 +6464,10 @@
     </row>
     <row r="120">
       <c r="A120" s="2">
-        <v>44293</v>
+        <v>44293.625</v>
       </c>
       <c r="B120">
-        <v>0.7137830706441916</v>
+        <v>0.7137830706441913</v>
       </c>
       <c r="C120" s="3">
         <v>44293</v>
@@ -6515,10 +6515,10 @@
     </row>
     <row r="121">
       <c r="A121" s="2">
-        <v>44293.04166666667</v>
+        <v>44293.66666666667</v>
       </c>
       <c r="B121">
-        <v>0.8510427533360331</v>
+        <v>0.851042753336033</v>
       </c>
       <c r="C121" s="3">
         <v>44293</v>
@@ -6566,10 +6566,10 @@
     </row>
     <row r="122">
       <c r="A122" s="2">
-        <v>44293.08333333333</v>
+        <v>44293.70833333333</v>
       </c>
       <c r="B122">
-        <v>0.9329462360250496</v>
+        <v>0.9329462360250493</v>
       </c>
       <c r="C122" s="3">
         <v>44293</v>
@@ -6617,10 +6617,10 @@
     </row>
     <row r="123">
       <c r="A123" s="2">
-        <v>44293.125</v>
+        <v>44293.75</v>
       </c>
       <c r="B123">
-        <v>0.964178333302907</v>
+        <v>0.9641783333029068</v>
       </c>
       <c r="C123" s="3">
         <v>44293</v>
@@ -6668,10 +6668,10 @@
     </row>
     <row r="124">
       <c r="A124" s="2">
-        <v>44293.16666666667</v>
+        <v>44293.79166666667</v>
       </c>
       <c r="B124">
-        <v>0.9065604986696143</v>
+        <v>0.9065604986696142</v>
       </c>
       <c r="C124" s="3">
         <v>44293</v>
@@ -6719,7 +6719,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2">
-        <v>44293.20833333333</v>
+        <v>44293.83333333333</v>
       </c>
       <c r="B125">
         <v>1.017488292449602</v>
@@ -6770,10 +6770,10 @@
     </row>
     <row r="126">
       <c r="A126" s="2">
-        <v>44293.25</v>
+        <v>44293.875</v>
       </c>
       <c r="B126">
-        <v>0.8677896192901987</v>
+        <v>0.8677896192901985</v>
       </c>
       <c r="C126" s="3">
         <v>44293</v>
@@ -6821,10 +6821,10 @@
     </row>
     <row r="127">
       <c r="A127" s="2">
-        <v>44293.29166666667</v>
+        <v>44293.91666666667</v>
       </c>
       <c r="B127">
-        <v>0.9421004714340756</v>
+        <v>0.9421004714340755</v>
       </c>
       <c r="C127" s="3">
         <v>44293</v>
@@ -6872,7 +6872,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2">
-        <v>44293.33333333333</v>
+        <v>44293.95833333333</v>
       </c>
       <c r="B128">
         <v>1.03687373213931</v>
@@ -6923,10 +6923,10 @@
     </row>
     <row r="129">
       <c r="A129" s="2">
-        <v>44293.375</v>
+        <v>44294</v>
       </c>
       <c r="B129">
-        <v>1.008872541476401</v>
+        <v>1.0088725414764</v>
       </c>
       <c r="C129" s="3">
         <v>44293</v>
@@ -6974,7 +6974,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2">
-        <v>44293.41666666667</v>
+        <v>44294.04166666667</v>
       </c>
       <c r="B130">
         <v>1.049797358599115</v>
@@ -7025,10 +7025,10 @@
     </row>
     <row r="131">
       <c r="A131" s="2">
-        <v>44293.45833333333</v>
+        <v>44294.08333333333</v>
       </c>
       <c r="B131">
-        <v>0.9421004714340756</v>
+        <v>0.9421004714340755</v>
       </c>
       <c r="C131" s="3">
         <v>44293</v>
@@ -7076,10 +7076,10 @@
     </row>
     <row r="132">
       <c r="A132" s="2">
-        <v>44293.95833333333</v>
+        <v>44294.58333333333</v>
       </c>
       <c r="B132">
-        <v>1.207034813860071</v>
+        <v>1.20703481386007</v>
       </c>
       <c r="C132" s="3">
         <v>44294</v>
@@ -7127,7 +7127,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2">
-        <v>44294</v>
+        <v>44294.625</v>
       </c>
       <c r="B133">
         <v>1.16934090335231</v>
@@ -7178,7 +7178,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2">
-        <v>44294.04166666667</v>
+        <v>44294.66666666667</v>
       </c>
       <c r="B134">
         <v>1.168263934480661</v>
@@ -7229,7 +7229,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2">
-        <v>44294.08333333333</v>
+        <v>44294.70833333333</v>
       </c>
       <c r="B135">
         <v>1.112261553154836</v>
@@ -7280,7 +7280,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2">
-        <v>44294.125</v>
+        <v>44294.75</v>
       </c>
       <c r="B136">
         <v>1.114953975333966</v>
@@ -7331,7 +7331,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2">
-        <v>44294.16666666667</v>
+        <v>44294.79166666667</v>
       </c>
       <c r="B137">
         <v>1.256036897520168</v>
@@ -7382,7 +7382,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2">
-        <v>44294.20833333333</v>
+        <v>44294.83333333333</v>
       </c>
       <c r="B138">
         <v>1.332932474956006</v>
@@ -7433,7 +7433,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2">
-        <v>44294.25</v>
+        <v>44294.875</v>
       </c>
       <c r="B139">
         <v>1.292223051607616</v>
@@ -7484,7 +7484,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2">
-        <v>44294.29166666667</v>
+        <v>44294.91666666667</v>
       </c>
       <c r="B140">
         <v>1.350810158225402</v>
@@ -7535,7 +7535,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2">
-        <v>44294.33333333333</v>
+        <v>44294.95833333333</v>
       </c>
       <c r="B141">
         <v>1.350810158225402</v>
@@ -7586,7 +7586,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2">
-        <v>44294.375</v>
+        <v>44295</v>
       </c>
       <c r="B142">
         <v>1.350810158225402</v>
@@ -7637,7 +7637,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2">
-        <v>44294.41666666667</v>
+        <v>44295.04166666667</v>
       </c>
       <c r="B143">
         <v>1.357810455891129</v>
@@ -7688,7 +7688,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2">
-        <v>44294.45833333333</v>
+        <v>44295.08333333333</v>
       </c>
       <c r="B144">
         <v>1.350810158225402</v>
@@ -7739,10 +7739,10 @@
     </row>
     <row r="145">
       <c r="A145" s="2">
-        <v>44294.875</v>
+        <v>44295.5</v>
       </c>
       <c r="B145">
-        <v>1.279191728260649</v>
+        <v>1.279191728260648</v>
       </c>
       <c r="C145" s="3">
         <v>44295</v>
@@ -7790,7 +7790,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2">
-        <v>44294.95833333333</v>
+        <v>44295.58333333333</v>
       </c>
       <c r="B146">
         <v>1.211881173782499</v>
@@ -7841,10 +7841,10 @@
     </row>
     <row r="147">
       <c r="A147" s="2">
-        <v>44295</v>
+        <v>44295.625</v>
       </c>
       <c r="B147">
-        <v>1.225881769113954</v>
+        <v>1.225881769113953</v>
       </c>
       <c r="C147" s="3">
         <v>44295</v>
@@ -7892,10 +7892,10 @@
     </row>
     <row r="148">
       <c r="A148" s="2">
-        <v>44295.04166666667</v>
+        <v>44295.66666666667</v>
       </c>
       <c r="B148">
-        <v>1.028257981166109</v>
+        <v>1.028257981166108</v>
       </c>
       <c r="C148" s="3">
         <v>44295</v>
@@ -7943,7 +7943,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2">
-        <v>44295.08333333333</v>
+        <v>44295.70833333333</v>
       </c>
       <c r="B149">
         <v>1.117646397513089</v>
@@ -7994,7 +7994,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2">
-        <v>44295.125</v>
+        <v>44295.75</v>
       </c>
       <c r="B150">
         <v>1.201649969501817</v>
@@ -8045,7 +8045,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2">
-        <v>44295.16666666667</v>
+        <v>44295.79166666667</v>
       </c>
       <c r="B151">
         <v>1.371811051222584</v>
@@ -8096,7 +8096,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2">
-        <v>44295.20833333333</v>
+        <v>44295.83333333333</v>
       </c>
       <c r="B152">
         <v>1.354579549276175</v>
@@ -8147,7 +8147,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2">
-        <v>44295.25</v>
+        <v>44295.875</v>
       </c>
       <c r="B153">
         <v>1.35673348701948</v>
@@ -8198,7 +8198,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2">
-        <v>44295.29166666667</v>
+        <v>44295.91666666667</v>
       </c>
       <c r="B154">
         <v>1.390119522040636</v>
@@ -8249,7 +8249,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2">
-        <v>44295.33333333333</v>
+        <v>44295.95833333333</v>
       </c>
       <c r="B155">
         <v>1.376118926709182</v>
@@ -8300,10 +8300,10 @@
     </row>
     <row r="156">
       <c r="A156" s="2">
-        <v>44295.375</v>
+        <v>44296</v>
       </c>
       <c r="B156">
-        <v>1.376657411145007</v>
+        <v>1.376657411145006</v>
       </c>
       <c r="C156" s="3">
         <v>44295</v>
@@ -8351,7 +8351,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2">
-        <v>44295.41666666667</v>
+        <v>44296.04166666667</v>
       </c>
       <c r="B157">
         <v>1.390119522040636</v>
@@ -8402,7 +8402,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2">
-        <v>44295.45833333333</v>
+        <v>44296.08333333333</v>
       </c>
       <c r="B158">
         <v>1.390119522040636</v>
@@ -8453,7 +8453,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2">
-        <v>44279.70833333333</v>
+        <v>44280.33333333333</v>
       </c>
       <c r="C159" s="3">
         <v>44280</v>
@@ -8501,7 +8501,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2">
-        <v>44279.75</v>
+        <v>44280.375</v>
       </c>
       <c r="C160" s="3">
         <v>44280</v>
@@ -8549,7 +8549,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2">
-        <v>44279.79166666667</v>
+        <v>44280.41666666667</v>
       </c>
       <c r="C161" s="3">
         <v>44280</v>
@@ -8597,7 +8597,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2">
-        <v>44279.83333333333</v>
+        <v>44280.45833333333</v>
       </c>
       <c r="C162" s="3">
         <v>44280</v>
@@ -8645,7 +8645,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2">
-        <v>44279.875</v>
+        <v>44280.5</v>
       </c>
       <c r="C163" s="3">
         <v>44280</v>
@@ -8693,7 +8693,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2">
-        <v>44280.5</v>
+        <v>44281.125</v>
       </c>
       <c r="C164" s="3">
         <v>44280</v>
@@ -8741,7 +8741,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2">
-        <v>44280.54166666667</v>
+        <v>44281.16666666667</v>
       </c>
       <c r="C165" s="3">
         <v>44280</v>
@@ -8789,7 +8789,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2">
-        <v>44280.58333333333</v>
+        <v>44281.20833333333</v>
       </c>
       <c r="C166" s="3">
         <v>44280</v>
@@ -8837,7 +8837,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2">
-        <v>44280.625</v>
+        <v>44281.25</v>
       </c>
       <c r="C167" s="3">
         <v>44280</v>
@@ -8885,7 +8885,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2">
-        <v>44280.66666666667</v>
+        <v>44281.29166666667</v>
       </c>
       <c r="C168" s="3">
         <v>44281</v>
@@ -8933,7 +8933,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2">
-        <v>44280.70833333333</v>
+        <v>44281.33333333333</v>
       </c>
       <c r="C169" s="3">
         <v>44281</v>
@@ -8981,7 +8981,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2">
-        <v>44280.75</v>
+        <v>44281.375</v>
       </c>
       <c r="C170" s="3">
         <v>44281</v>
@@ -9029,7 +9029,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2">
-        <v>44280.83333333333</v>
+        <v>44281.45833333333</v>
       </c>
       <c r="C171" s="3">
         <v>44281</v>
@@ -9077,7 +9077,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2">
-        <v>44280.875</v>
+        <v>44281.5</v>
       </c>
       <c r="C172" s="3">
         <v>44281</v>
@@ -9125,7 +9125,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2">
-        <v>44281.5</v>
+        <v>44282.125</v>
       </c>
       <c r="C173" s="3">
         <v>44281</v>
@@ -9173,7 +9173,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2">
-        <v>44281.54166666667</v>
+        <v>44282.16666666667</v>
       </c>
       <c r="C174" s="3">
         <v>44281</v>
@@ -9221,7 +9221,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2">
-        <v>44281.58333333333</v>
+        <v>44282.20833333333</v>
       </c>
       <c r="C175" s="3">
         <v>44281</v>
@@ -9269,7 +9269,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2">
-        <v>44281.625</v>
+        <v>44282.25</v>
       </c>
       <c r="C176" s="3">
         <v>44281</v>
@@ -9317,7 +9317,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2">
-        <v>44281.66666666667</v>
+        <v>44282.29166666667</v>
       </c>
       <c r="C177" s="3">
         <v>44282</v>
@@ -9365,7 +9365,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2">
-        <v>44281.70833333333</v>
+        <v>44282.33333333333</v>
       </c>
       <c r="C178" s="3">
         <v>44282</v>
@@ -9413,7 +9413,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2">
-        <v>44281.75</v>
+        <v>44282.375</v>
       </c>
       <c r="C179" s="3">
         <v>44282</v>
@@ -9461,7 +9461,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2">
-        <v>44281.79166666667</v>
+        <v>44282.41666666667</v>
       </c>
       <c r="C180" s="3">
         <v>44282</v>
@@ -9509,7 +9509,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2">
-        <v>44281.83333333333</v>
+        <v>44282.45833333333</v>
       </c>
       <c r="C181" s="3">
         <v>44282</v>
@@ -9557,7 +9557,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2">
-        <v>44281.875</v>
+        <v>44282.5</v>
       </c>
       <c r="C182" s="3">
         <v>44282</v>
@@ -9605,7 +9605,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2">
-        <v>44281.91666666667</v>
+        <v>44282.54166666667</v>
       </c>
       <c r="C183" s="3">
         <v>44282</v>
@@ -9653,7 +9653,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2">
-        <v>44281.95833333333</v>
+        <v>44282.58333333333</v>
       </c>
       <c r="C184" s="3">
         <v>44282</v>
@@ -9701,7 +9701,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2">
-        <v>44282</v>
+        <v>44282.625</v>
       </c>
       <c r="C185" s="3">
         <v>44282</v>
@@ -9749,7 +9749,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2">
-        <v>44282.08333333333</v>
+        <v>44282.70833333333</v>
       </c>
       <c r="C186" s="3">
         <v>44282</v>
@@ -9797,7 +9797,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2">
-        <v>44282.125</v>
+        <v>44282.75</v>
       </c>
       <c r="C187" s="3">
         <v>44282</v>
@@ -9845,7 +9845,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2">
-        <v>44282.16666666667</v>
+        <v>44282.79166666667</v>
       </c>
       <c r="C188" s="3">
         <v>44282</v>
@@ -9893,7 +9893,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2">
-        <v>44282.20833333333</v>
+        <v>44282.83333333333</v>
       </c>
       <c r="C189" s="3">
         <v>44282</v>
@@ -9941,7 +9941,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2">
-        <v>44282.25</v>
+        <v>44282.875</v>
       </c>
       <c r="C190" s="3">
         <v>44282</v>
@@ -9989,7 +9989,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2">
-        <v>44282.29166666667</v>
+        <v>44282.91666666667</v>
       </c>
       <c r="C191" s="3">
         <v>44282</v>
@@ -10037,7 +10037,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2">
-        <v>44282.33333333333</v>
+        <v>44282.95833333333</v>
       </c>
       <c r="C192" s="3">
         <v>44282</v>
@@ -10085,7 +10085,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2">
-        <v>44282.375</v>
+        <v>44283</v>
       </c>
       <c r="C193" s="3">
         <v>44282</v>
@@ -10133,7 +10133,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2">
-        <v>44282.41666666667</v>
+        <v>44283.04166666667</v>
       </c>
       <c r="C194" s="3">
         <v>44282</v>
@@ -10181,7 +10181,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2">
-        <v>44282.45833333333</v>
+        <v>44283.08333333333</v>
       </c>
       <c r="C195" s="3">
         <v>44282</v>
@@ -10229,7 +10229,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2">
-        <v>44282.5</v>
+        <v>44283.125</v>
       </c>
       <c r="C196" s="3">
         <v>44282</v>
@@ -10277,7 +10277,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2">
-        <v>44282.54166666667</v>
+        <v>44283.16666666667</v>
       </c>
       <c r="C197" s="3">
         <v>44282</v>
@@ -10325,7 +10325,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2">
-        <v>44282.58333333333</v>
+        <v>44283.20833333333</v>
       </c>
       <c r="C198" s="3">
         <v>44282</v>
@@ -10373,7 +10373,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2">
-        <v>44282.625</v>
+        <v>44283.25</v>
       </c>
       <c r="C199" s="3">
         <v>44282</v>
@@ -10421,7 +10421,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2">
-        <v>44282.66666666667</v>
+        <v>44283.29166666667</v>
       </c>
       <c r="C200" s="3">
         <v>44283</v>
@@ -10469,7 +10469,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2">
-        <v>44282.70833333333</v>
+        <v>44283.33333333333</v>
       </c>
       <c r="C201" s="3">
         <v>44283</v>
@@ -10517,7 +10517,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2">
-        <v>44282.75</v>
+        <v>44283.375</v>
       </c>
       <c r="C202" s="3">
         <v>44283</v>
@@ -10565,7 +10565,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2">
-        <v>44282.79166666667</v>
+        <v>44283.41666666667</v>
       </c>
       <c r="C203" s="3">
         <v>44283</v>
@@ -10613,7 +10613,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2">
-        <v>44282.83333333333</v>
+        <v>44283.45833333333</v>
       </c>
       <c r="C204" s="3">
         <v>44283</v>
@@ -10661,7 +10661,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2">
-        <v>44282.875</v>
+        <v>44283.5</v>
       </c>
       <c r="C205" s="3">
         <v>44283</v>
@@ -10709,7 +10709,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2">
-        <v>44282.91666666667</v>
+        <v>44283.54166666667</v>
       </c>
       <c r="C206" s="3">
         <v>44283</v>
@@ -10757,7 +10757,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2">
-        <v>44282.95833333333</v>
+        <v>44283.58333333333</v>
       </c>
       <c r="C207" s="3">
         <v>44283</v>
@@ -10805,7 +10805,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2">
-        <v>44283</v>
+        <v>44283.625</v>
       </c>
       <c r="C208" s="3">
         <v>44283</v>
@@ -10853,7 +10853,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2">
-        <v>44283.04166666667</v>
+        <v>44283.66666666667</v>
       </c>
       <c r="C209" s="3">
         <v>44283</v>
@@ -10901,7 +10901,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2">
-        <v>44283.08333333333</v>
+        <v>44283.70833333333</v>
       </c>
       <c r="C210" s="3">
         <v>44283</v>
@@ -10949,7 +10949,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2">
-        <v>44283.125</v>
+        <v>44283.75</v>
       </c>
       <c r="C211" s="3">
         <v>44283</v>
@@ -10997,7 +10997,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2">
-        <v>44283.16666666667</v>
+        <v>44283.79166666667</v>
       </c>
       <c r="C212" s="3">
         <v>44283</v>
@@ -11045,7 +11045,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2">
-        <v>44283.20833333333</v>
+        <v>44283.83333333333</v>
       </c>
       <c r="C213" s="3">
         <v>44283</v>
@@ -11093,7 +11093,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2">
-        <v>44283.25</v>
+        <v>44283.875</v>
       </c>
       <c r="C214" s="3">
         <v>44283</v>
@@ -11141,7 +11141,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2">
-        <v>44283.29166666667</v>
+        <v>44283.91666666667</v>
       </c>
       <c r="C215" s="3">
         <v>44283</v>
@@ -11189,7 +11189,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2">
-        <v>44283.33333333333</v>
+        <v>44283.95833333333</v>
       </c>
       <c r="C216" s="3">
         <v>44283</v>
@@ -11237,7 +11237,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2">
-        <v>44283.375</v>
+        <v>44284</v>
       </c>
       <c r="C217" s="3">
         <v>44283</v>
@@ -11285,7 +11285,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2">
-        <v>44283.41666666667</v>
+        <v>44284.04166666667</v>
       </c>
       <c r="C218" s="3">
         <v>44283</v>
@@ -11333,7 +11333,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2">
-        <v>44283.45833333333</v>
+        <v>44284.08333333333</v>
       </c>
       <c r="C219" s="3">
         <v>44283</v>
@@ -11381,7 +11381,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2">
-        <v>44283.5</v>
+        <v>44284.125</v>
       </c>
       <c r="C220" s="3">
         <v>44283</v>
@@ -11429,7 +11429,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2">
-        <v>44283.54166666667</v>
+        <v>44284.16666666667</v>
       </c>
       <c r="C221" s="3">
         <v>44283</v>
@@ -11477,7 +11477,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2">
-        <v>44283.58333333333</v>
+        <v>44284.20833333333</v>
       </c>
       <c r="C222" s="3">
         <v>44283</v>
@@ -11525,7 +11525,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2">
-        <v>44283.625</v>
+        <v>44284.25</v>
       </c>
       <c r="C223" s="3">
         <v>44283</v>
@@ -11573,7 +11573,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2">
-        <v>44283.66666666667</v>
+        <v>44284.29166666667</v>
       </c>
       <c r="C224" s="3">
         <v>44284</v>
@@ -11621,7 +11621,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2">
-        <v>44283.70833333333</v>
+        <v>44284.33333333333</v>
       </c>
       <c r="C225" s="3">
         <v>44284</v>
@@ -11669,7 +11669,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2">
-        <v>44283.75</v>
+        <v>44284.375</v>
       </c>
       <c r="C226" s="3">
         <v>44284</v>
@@ -11717,7 +11717,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2">
-        <v>44283.79166666667</v>
+        <v>44284.41666666667</v>
       </c>
       <c r="C227" s="3">
         <v>44284</v>
@@ -11765,7 +11765,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2">
-        <v>44283.875</v>
+        <v>44284.5</v>
       </c>
       <c r="C228" s="3">
         <v>44284</v>
@@ -11813,7 +11813,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2">
-        <v>44284.41666666667</v>
+        <v>44285.04166666667</v>
       </c>
       <c r="C229" s="3">
         <v>44284</v>
@@ -11861,7 +11861,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2">
-        <v>44284.5</v>
+        <v>44285.125</v>
       </c>
       <c r="C230" s="3">
         <v>44284</v>
@@ -11909,7 +11909,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2">
-        <v>44284.54166666667</v>
+        <v>44285.16666666667</v>
       </c>
       <c r="C231" s="3">
         <v>44284</v>
@@ -11957,7 +11957,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2">
-        <v>44284.58333333333</v>
+        <v>44285.20833333333</v>
       </c>
       <c r="C232" s="3">
         <v>44284</v>
@@ -12005,7 +12005,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2">
-        <v>44284.625</v>
+        <v>44285.25</v>
       </c>
       <c r="C233" s="3">
         <v>44284</v>
@@ -12053,7 +12053,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2">
-        <v>44284.66666666667</v>
+        <v>44285.29166666667</v>
       </c>
       <c r="C234" s="3">
         <v>44285</v>
@@ -12101,7 +12101,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2">
-        <v>44284.70833333333</v>
+        <v>44285.33333333333</v>
       </c>
       <c r="C235" s="3">
         <v>44285</v>
@@ -12149,7 +12149,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2">
-        <v>44284.75</v>
+        <v>44285.375</v>
       </c>
       <c r="C236" s="3">
         <v>44285</v>
@@ -12197,7 +12197,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2">
-        <v>44284.79166666667</v>
+        <v>44285.41666666667</v>
       </c>
       <c r="C237" s="3">
         <v>44285</v>
@@ -12245,7 +12245,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2">
-        <v>44284.83333333333</v>
+        <v>44285.45833333333</v>
       </c>
       <c r="C238" s="3">
         <v>44285</v>
@@ -12293,7 +12293,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2">
-        <v>44284.875</v>
+        <v>44285.5</v>
       </c>
       <c r="C239" s="3">
         <v>44285</v>
@@ -12341,7 +12341,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2">
-        <v>44285.5</v>
+        <v>44286.125</v>
       </c>
       <c r="C240" s="3">
         <v>44285</v>
@@ -12389,7 +12389,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2">
-        <v>44285.54166666667</v>
+        <v>44286.16666666667</v>
       </c>
       <c r="C241" s="3">
         <v>44285</v>
@@ -12437,7 +12437,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2">
-        <v>44285.58333333333</v>
+        <v>44286.20833333333</v>
       </c>
       <c r="C242" s="3">
         <v>44285</v>
@@ -12485,7 +12485,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2">
-        <v>44285.625</v>
+        <v>44286.25</v>
       </c>
       <c r="C243" s="3">
         <v>44285</v>
@@ -12533,7 +12533,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2">
-        <v>44285.66666666667</v>
+        <v>44286.29166666667</v>
       </c>
       <c r="C244" s="3">
         <v>44286</v>
@@ -12581,7 +12581,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2">
-        <v>44285.70833333333</v>
+        <v>44286.33333333333</v>
       </c>
       <c r="C245" s="3">
         <v>44286</v>
@@ -12629,7 +12629,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2">
-        <v>44285.75</v>
+        <v>44286.375</v>
       </c>
       <c r="C246" s="3">
         <v>44286</v>
@@ -12677,7 +12677,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2">
-        <v>44285.79166666667</v>
+        <v>44286.41666666667</v>
       </c>
       <c r="C247" s="3">
         <v>44286</v>
@@ -12725,7 +12725,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2">
-        <v>44285.875</v>
+        <v>44286.5</v>
       </c>
       <c r="C248" s="3">
         <v>44286</v>
@@ -12773,7 +12773,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2">
-        <v>44286.5</v>
+        <v>44287.125</v>
       </c>
       <c r="C249" s="3">
         <v>44286</v>
@@ -12821,7 +12821,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2">
-        <v>44286.54166666667</v>
+        <v>44287.16666666667</v>
       </c>
       <c r="C250" s="3">
         <v>44286</v>
@@ -12869,7 +12869,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2">
-        <v>44286.58333333333</v>
+        <v>44287.20833333333</v>
       </c>
       <c r="C251" s="3">
         <v>44286</v>
@@ -12917,7 +12917,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2">
-        <v>44286.625</v>
+        <v>44287.25</v>
       </c>
       <c r="C252" s="3">
         <v>44286</v>
@@ -12965,7 +12965,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2">
-        <v>44286.66666666667</v>
+        <v>44287.29166666667</v>
       </c>
       <c r="C253" s="3">
         <v>44287</v>
@@ -13013,7 +13013,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2">
-        <v>44286.70833333333</v>
+        <v>44287.33333333333</v>
       </c>
       <c r="C254" s="3">
         <v>44287</v>
@@ -13061,7 +13061,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2">
-        <v>44286.75</v>
+        <v>44287.375</v>
       </c>
       <c r="C255" s="3">
         <v>44287</v>
@@ -13109,7 +13109,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2">
-        <v>44286.79166666667</v>
+        <v>44287.41666666667</v>
       </c>
       <c r="C256" s="3">
         <v>44287</v>
@@ -13157,7 +13157,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2">
-        <v>44286.875</v>
+        <v>44287.5</v>
       </c>
       <c r="C257" s="3">
         <v>44287</v>
@@ -13205,7 +13205,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2">
-        <v>44287.5</v>
+        <v>44288.125</v>
       </c>
       <c r="C258" s="3">
         <v>44287</v>
@@ -13253,7 +13253,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2">
-        <v>44287.54166666667</v>
+        <v>44288.16666666667</v>
       </c>
       <c r="C259" s="3">
         <v>44287</v>
@@ -13301,7 +13301,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2">
-        <v>44287.58333333333</v>
+        <v>44288.20833333333</v>
       </c>
       <c r="C260" s="3">
         <v>44287</v>
@@ -13349,7 +13349,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2">
-        <v>44287.625</v>
+        <v>44288.25</v>
       </c>
       <c r="C261" s="3">
         <v>44287</v>
@@ -13397,7 +13397,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2">
-        <v>44287.66666666667</v>
+        <v>44288.29166666667</v>
       </c>
       <c r="C262" s="3">
         <v>44288</v>
@@ -13445,7 +13445,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2">
-        <v>44287.70833333333</v>
+        <v>44288.33333333333</v>
       </c>
       <c r="C263" s="3">
         <v>44288</v>
@@ -13493,7 +13493,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2">
-        <v>44287.75</v>
+        <v>44288.375</v>
       </c>
       <c r="C264" s="3">
         <v>44288</v>
@@ -13541,7 +13541,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2">
-        <v>44287.79166666667</v>
+        <v>44288.41666666667</v>
       </c>
       <c r="C265" s="3">
         <v>44288</v>
@@ -13589,7 +13589,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2">
-        <v>44287.83333333333</v>
+        <v>44288.45833333333</v>
       </c>
       <c r="C266" s="3">
         <v>44288</v>
@@ -13637,7 +13637,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2">
-        <v>44287.91666666667</v>
+        <v>44288.54166666667</v>
       </c>
       <c r="C267" s="3">
         <v>44288</v>
@@ -13685,7 +13685,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2">
-        <v>44287.95833333333</v>
+        <v>44288.58333333333</v>
       </c>
       <c r="C268" s="3">
         <v>44288</v>
@@ -13733,7 +13733,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2">
-        <v>44288</v>
+        <v>44288.625</v>
       </c>
       <c r="C269" s="3">
         <v>44288</v>
@@ -13781,7 +13781,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2">
-        <v>44288.04166666667</v>
+        <v>44288.66666666667</v>
       </c>
       <c r="C270" s="3">
         <v>44288</v>
@@ -13829,7 +13829,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2">
-        <v>44288.08333333333</v>
+        <v>44288.70833333333</v>
       </c>
       <c r="C271" s="3">
         <v>44288</v>
@@ -13877,7 +13877,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2">
-        <v>44288.125</v>
+        <v>44288.75</v>
       </c>
       <c r="C272" s="3">
         <v>44288</v>
@@ -13925,7 +13925,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2">
-        <v>44288.16666666667</v>
+        <v>44288.79166666667</v>
       </c>
       <c r="C273" s="3">
         <v>44288</v>
@@ -13973,7 +13973,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2">
-        <v>44288.20833333333</v>
+        <v>44288.83333333333</v>
       </c>
       <c r="C274" s="3">
         <v>44288</v>
@@ -14021,7 +14021,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2">
-        <v>44288.25</v>
+        <v>44288.875</v>
       </c>
       <c r="C275" s="3">
         <v>44288</v>
@@ -14069,7 +14069,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2">
-        <v>44288.29166666667</v>
+        <v>44288.91666666667</v>
       </c>
       <c r="C276" s="3">
         <v>44288</v>
@@ -14117,7 +14117,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2">
-        <v>44288.33333333333</v>
+        <v>44288.95833333333</v>
       </c>
       <c r="C277" s="3">
         <v>44288</v>
@@ -14165,7 +14165,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2">
-        <v>44288.375</v>
+        <v>44289</v>
       </c>
       <c r="C278" s="3">
         <v>44288</v>
@@ -14213,7 +14213,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2">
-        <v>44288.41666666667</v>
+        <v>44289.04166666667</v>
       </c>
       <c r="C279" s="3">
         <v>44288</v>
@@ -14261,7 +14261,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2">
-        <v>44288.45833333333</v>
+        <v>44289.08333333333</v>
       </c>
       <c r="C280" s="3">
         <v>44288</v>
@@ -14309,7 +14309,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2">
-        <v>44288.5</v>
+        <v>44289.125</v>
       </c>
       <c r="C281" s="3">
         <v>44288</v>
@@ -14357,7 +14357,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2">
-        <v>44288.54166666667</v>
+        <v>44289.16666666667</v>
       </c>
       <c r="C282" s="3">
         <v>44288</v>
@@ -14405,7 +14405,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2">
-        <v>44288.58333333333</v>
+        <v>44289.20833333333</v>
       </c>
       <c r="C283" s="3">
         <v>44288</v>
@@ -14453,7 +14453,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2">
-        <v>44288.625</v>
+        <v>44289.25</v>
       </c>
       <c r="C284" s="3">
         <v>44288</v>
@@ -14501,7 +14501,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2">
-        <v>44288.66666666667</v>
+        <v>44289.29166666667</v>
       </c>
       <c r="C285" s="3">
         <v>44289</v>
@@ -14549,7 +14549,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2">
-        <v>44288.70833333333</v>
+        <v>44289.33333333333</v>
       </c>
       <c r="C286" s="3">
         <v>44289</v>
@@ -14597,7 +14597,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2">
-        <v>44288.75</v>
+        <v>44289.375</v>
       </c>
       <c r="C287" s="3">
         <v>44289</v>
@@ -14645,7 +14645,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2">
-        <v>44288.79166666667</v>
+        <v>44289.41666666667</v>
       </c>
       <c r="C288" s="3">
         <v>44289</v>
@@ -14693,7 +14693,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2">
-        <v>44288.83333333333</v>
+        <v>44289.45833333333</v>
       </c>
       <c r="C289" s="3">
         <v>44289</v>
@@ -14741,7 +14741,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2">
-        <v>44288.875</v>
+        <v>44289.5</v>
       </c>
       <c r="C290" s="3">
         <v>44289</v>
@@ -14789,7 +14789,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2">
-        <v>44288.91666666667</v>
+        <v>44289.54166666667</v>
       </c>
       <c r="C291" s="3">
         <v>44289</v>
@@ -14837,7 +14837,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2">
-        <v>44288.95833333333</v>
+        <v>44289.58333333333</v>
       </c>
       <c r="C292" s="3">
         <v>44289</v>
@@ -14885,7 +14885,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2">
-        <v>44289</v>
+        <v>44289.625</v>
       </c>
       <c r="C293" s="3">
         <v>44289</v>
@@ -14933,7 +14933,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2">
-        <v>44289.04166666667</v>
+        <v>44289.66666666667</v>
       </c>
       <c r="C294" s="3">
         <v>44289</v>
@@ -14981,7 +14981,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2">
-        <v>44289.08333333333</v>
+        <v>44289.70833333333</v>
       </c>
       <c r="C295" s="3">
         <v>44289</v>
@@ -15029,7 +15029,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2">
-        <v>44289.125</v>
+        <v>44289.75</v>
       </c>
       <c r="C296" s="3">
         <v>44289</v>
@@ -15077,7 +15077,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2">
-        <v>44289.16666666667</v>
+        <v>44289.79166666667</v>
       </c>
       <c r="C297" s="3">
         <v>44289</v>
@@ -15125,7 +15125,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2">
-        <v>44289.20833333333</v>
+        <v>44289.83333333333</v>
       </c>
       <c r="C298" s="3">
         <v>44289</v>
@@ -15173,7 +15173,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2">
-        <v>44289.25</v>
+        <v>44289.875</v>
       </c>
       <c r="C299" s="3">
         <v>44289</v>
@@ -15221,7 +15221,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2">
-        <v>44289.29166666667</v>
+        <v>44289.91666666667</v>
       </c>
       <c r="C300" s="3">
         <v>44289</v>
@@ -15269,7 +15269,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2">
-        <v>44289.33333333333</v>
+        <v>44289.95833333333</v>
       </c>
       <c r="C301" s="3">
         <v>44289</v>
@@ -15317,7 +15317,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2">
-        <v>44289.375</v>
+        <v>44290</v>
       </c>
       <c r="C302" s="3">
         <v>44289</v>
@@ -15365,7 +15365,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2">
-        <v>44289.41666666667</v>
+        <v>44290.04166666667</v>
       </c>
       <c r="C303" s="3">
         <v>44289</v>
@@ -15413,7 +15413,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2">
-        <v>44289.45833333333</v>
+        <v>44290.08333333333</v>
       </c>
       <c r="C304" s="3">
         <v>44289</v>
@@ -15461,7 +15461,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2">
-        <v>44289.5</v>
+        <v>44290.125</v>
       </c>
       <c r="C305" s="3">
         <v>44289</v>
@@ -15509,7 +15509,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2">
-        <v>44289.54166666667</v>
+        <v>44290.16666666667</v>
       </c>
       <c r="C306" s="3">
         <v>44289</v>
@@ -15557,7 +15557,7 @@
     </row>
     <row r="307">
       <c r="A307" s="2">
-        <v>44289.58333333333</v>
+        <v>44290.20833333333</v>
       </c>
       <c r="C307" s="3">
         <v>44289</v>
@@ -15605,7 +15605,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2">
-        <v>44289.625</v>
+        <v>44290.25</v>
       </c>
       <c r="C308" s="3">
         <v>44289</v>
@@ -15653,7 +15653,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2">
-        <v>44289.66666666667</v>
+        <v>44290.29166666667</v>
       </c>
       <c r="C309" s="3">
         <v>44290</v>
@@ -15701,7 +15701,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2">
-        <v>44289.70833333333</v>
+        <v>44290.33333333333</v>
       </c>
       <c r="C310" s="3">
         <v>44290</v>
@@ -15749,7 +15749,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2">
-        <v>44289.75</v>
+        <v>44290.375</v>
       </c>
       <c r="C311" s="3">
         <v>44290</v>
@@ -15797,7 +15797,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2">
-        <v>44289.79166666667</v>
+        <v>44290.41666666667</v>
       </c>
       <c r="C312" s="3">
         <v>44290</v>
@@ -15845,7 +15845,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2">
-        <v>44289.83333333333</v>
+        <v>44290.45833333333</v>
       </c>
       <c r="C313" s="3">
         <v>44290</v>
@@ -15893,7 +15893,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2">
-        <v>44289.875</v>
+        <v>44290.5</v>
       </c>
       <c r="C314" s="3">
         <v>44290</v>
@@ -15941,7 +15941,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2">
-        <v>44289.91666666667</v>
+        <v>44290.54166666667</v>
       </c>
       <c r="C315" s="3">
         <v>44290</v>
@@ -15989,7 +15989,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2">
-        <v>44289.95833333333</v>
+        <v>44290.58333333333</v>
       </c>
       <c r="C316" s="3">
         <v>44290</v>
@@ -16037,7 +16037,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2">
-        <v>44290</v>
+        <v>44290.625</v>
       </c>
       <c r="C317" s="3">
         <v>44290</v>
@@ -16085,7 +16085,7 @@
     </row>
     <row r="318">
       <c r="A318" s="2">
-        <v>44290.04166666667</v>
+        <v>44290.66666666667</v>
       </c>
       <c r="C318" s="3">
         <v>44290</v>
@@ -16133,7 +16133,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2">
-        <v>44290.08333333333</v>
+        <v>44290.70833333333</v>
       </c>
       <c r="C319" s="3">
         <v>44290</v>
@@ -16181,7 +16181,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2">
-        <v>44290.125</v>
+        <v>44290.75</v>
       </c>
       <c r="C320" s="3">
         <v>44290</v>
@@ -16229,7 +16229,7 @@
     </row>
     <row r="321">
       <c r="A321" s="2">
-        <v>44290.16666666667</v>
+        <v>44290.79166666667</v>
       </c>
       <c r="C321" s="3">
         <v>44290</v>
@@ -16277,7 +16277,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2">
-        <v>44290.20833333333</v>
+        <v>44290.83333333333</v>
       </c>
       <c r="C322" s="3">
         <v>44290</v>
@@ -16325,7 +16325,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2">
-        <v>44290.25</v>
+        <v>44290.875</v>
       </c>
       <c r="C323" s="3">
         <v>44290</v>
@@ -16373,7 +16373,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2">
-        <v>44290.29166666667</v>
+        <v>44290.91666666667</v>
       </c>
       <c r="C324" s="3">
         <v>44290</v>
@@ -16421,7 +16421,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2">
-        <v>44290.33333333333</v>
+        <v>44290.95833333333</v>
       </c>
       <c r="C325" s="3">
         <v>44290</v>
@@ -16469,7 +16469,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2">
-        <v>44290.375</v>
+        <v>44291</v>
       </c>
       <c r="C326" s="3">
         <v>44290</v>
@@ -16517,7 +16517,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2">
-        <v>44290.41666666667</v>
+        <v>44291.04166666667</v>
       </c>
       <c r="C327" s="3">
         <v>44290</v>
@@ -16565,7 +16565,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2">
-        <v>44290.45833333333</v>
+        <v>44291.08333333333</v>
       </c>
       <c r="C328" s="3">
         <v>44290</v>
@@ -16613,7 +16613,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2">
-        <v>44290.5</v>
+        <v>44291.125</v>
       </c>
       <c r="C329" s="3">
         <v>44290</v>
@@ -16661,7 +16661,7 @@
     </row>
     <row r="330">
       <c r="A330" s="2">
-        <v>44290.54166666667</v>
+        <v>44291.16666666667</v>
       </c>
       <c r="C330" s="3">
         <v>44290</v>
@@ -16709,7 +16709,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2">
-        <v>44290.58333333333</v>
+        <v>44291.20833333333</v>
       </c>
       <c r="C331" s="3">
         <v>44290</v>
@@ -16757,7 +16757,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2">
-        <v>44290.625</v>
+        <v>44291.25</v>
       </c>
       <c r="C332" s="3">
         <v>44290</v>
@@ -16805,7 +16805,7 @@
     </row>
     <row r="333">
       <c r="A333" s="2">
-        <v>44290.66666666667</v>
+        <v>44291.29166666667</v>
       </c>
       <c r="C333" s="3">
         <v>44291</v>
@@ -16853,7 +16853,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2">
-        <v>44290.70833333333</v>
+        <v>44291.33333333333</v>
       </c>
       <c r="C334" s="3">
         <v>44291</v>
@@ -16901,7 +16901,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2">
-        <v>44290.75</v>
+        <v>44291.375</v>
       </c>
       <c r="C335" s="3">
         <v>44291</v>
@@ -16949,7 +16949,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2">
-        <v>44290.83333333333</v>
+        <v>44291.45833333333</v>
       </c>
       <c r="C336" s="3">
         <v>44291</v>
@@ -16997,7 +16997,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2">
-        <v>44290.875</v>
+        <v>44291.5</v>
       </c>
       <c r="C337" s="3">
         <v>44291</v>
@@ -17045,7 +17045,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2">
-        <v>44291.41666666667</v>
+        <v>44292.04166666667</v>
       </c>
       <c r="C338" s="3">
         <v>44291</v>
@@ -17093,7 +17093,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2">
-        <v>44291.5</v>
+        <v>44292.125</v>
       </c>
       <c r="C339" s="3">
         <v>44291</v>
@@ -17141,7 +17141,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2">
-        <v>44291.54166666667</v>
+        <v>44292.16666666667</v>
       </c>
       <c r="C340" s="3">
         <v>44291</v>
@@ -17189,7 +17189,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2">
-        <v>44291.58333333333</v>
+        <v>44292.20833333333</v>
       </c>
       <c r="C341" s="3">
         <v>44291</v>
@@ -17237,7 +17237,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2">
-        <v>44291.625</v>
+        <v>44292.25</v>
       </c>
       <c r="C342" s="3">
         <v>44291</v>
@@ -17285,7 +17285,7 @@
     </row>
     <row r="343">
       <c r="A343" s="2">
-        <v>44291.66666666667</v>
+        <v>44292.29166666667</v>
       </c>
       <c r="C343" s="3">
         <v>44292</v>
@@ -17333,7 +17333,7 @@
     </row>
     <row r="344">
       <c r="A344" s="2">
-        <v>44291.70833333333</v>
+        <v>44292.33333333333</v>
       </c>
       <c r="C344" s="3">
         <v>44292</v>
@@ -17381,7 +17381,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2">
-        <v>44291.75</v>
+        <v>44292.375</v>
       </c>
       <c r="C345" s="3">
         <v>44292</v>
@@ -17429,7 +17429,7 @@
     </row>
     <row r="346">
       <c r="A346" s="2">
-        <v>44292.41666666667</v>
+        <v>44293.04166666667</v>
       </c>
       <c r="C346" s="3">
         <v>44292</v>
@@ -17477,7 +17477,7 @@
     </row>
     <row r="347">
       <c r="A347" s="2">
-        <v>44292.5</v>
+        <v>44293.125</v>
       </c>
       <c r="C347" s="3">
         <v>44292</v>
@@ -17525,7 +17525,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2">
-        <v>44292.54166666667</v>
+        <v>44293.16666666667</v>
       </c>
       <c r="C348" s="3">
         <v>44292</v>
@@ -17573,7 +17573,7 @@
     </row>
     <row r="349">
       <c r="A349" s="2">
-        <v>44292.58333333333</v>
+        <v>44293.20833333333</v>
       </c>
       <c r="C349" s="3">
         <v>44292</v>
@@ -17621,7 +17621,7 @@
     </row>
     <row r="350">
       <c r="A350" s="2">
-        <v>44292.625</v>
+        <v>44293.25</v>
       </c>
       <c r="C350" s="3">
         <v>44292</v>
@@ -17669,7 +17669,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2">
-        <v>44292.66666666667</v>
+        <v>44293.29166666667</v>
       </c>
       <c r="C351" s="3">
         <v>44293</v>
@@ -17717,7 +17717,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2">
-        <v>44292.70833333333</v>
+        <v>44293.33333333333</v>
       </c>
       <c r="C352" s="3">
         <v>44293</v>
@@ -17765,7 +17765,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2">
-        <v>44292.75</v>
+        <v>44293.375</v>
       </c>
       <c r="C353" s="3">
         <v>44293</v>
@@ -17813,7 +17813,7 @@
     </row>
     <row r="354">
       <c r="A354" s="2">
-        <v>44292.79166666667</v>
+        <v>44293.41666666667</v>
       </c>
       <c r="C354" s="3">
         <v>44293</v>
@@ -17861,7 +17861,7 @@
     </row>
     <row r="355">
       <c r="A355" s="2">
-        <v>44292.83333333333</v>
+        <v>44293.45833333333</v>
       </c>
       <c r="C355" s="3">
         <v>44293</v>
@@ -17909,7 +17909,7 @@
     </row>
     <row r="356">
       <c r="A356" s="2">
-        <v>44292.875</v>
+        <v>44293.5</v>
       </c>
       <c r="C356" s="3">
         <v>44293</v>
@@ -17957,7 +17957,7 @@
     </row>
     <row r="357">
       <c r="A357" s="2">
-        <v>44292.91666666667</v>
+        <v>44293.54166666667</v>
       </c>
       <c r="C357" s="3">
         <v>44293</v>
@@ -18005,7 +18005,7 @@
     </row>
     <row r="358">
       <c r="A358" s="2">
-        <v>44293.5</v>
+        <v>44294.125</v>
       </c>
       <c r="C358" s="3">
         <v>44293</v>
@@ -18053,7 +18053,7 @@
     </row>
     <row r="359">
       <c r="A359" s="2">
-        <v>44293.54166666667</v>
+        <v>44294.16666666667</v>
       </c>
       <c r="C359" s="3">
         <v>44293</v>
@@ -18101,7 +18101,7 @@
     </row>
     <row r="360">
       <c r="A360" s="2">
-        <v>44293.58333333333</v>
+        <v>44294.20833333333</v>
       </c>
       <c r="C360" s="3">
         <v>44293</v>
@@ -18149,7 +18149,7 @@
     </row>
     <row r="361">
       <c r="A361" s="2">
-        <v>44293.625</v>
+        <v>44294.25</v>
       </c>
       <c r="C361" s="3">
         <v>44293</v>
@@ -18197,7 +18197,7 @@
     </row>
     <row r="362">
       <c r="A362" s="2">
-        <v>44293.66666666667</v>
+        <v>44294.29166666667</v>
       </c>
       <c r="C362" s="3">
         <v>44294</v>
@@ -18245,7 +18245,7 @@
     </row>
     <row r="363">
       <c r="A363" s="2">
-        <v>44293.70833333333</v>
+        <v>44294.33333333333</v>
       </c>
       <c r="C363" s="3">
         <v>44294</v>
@@ -18293,7 +18293,7 @@
     </row>
     <row r="364">
       <c r="A364" s="2">
-        <v>44293.75</v>
+        <v>44294.375</v>
       </c>
       <c r="C364" s="3">
         <v>44294</v>
@@ -18341,7 +18341,7 @@
     </row>
     <row r="365">
       <c r="A365" s="2">
-        <v>44293.79166666667</v>
+        <v>44294.41666666667</v>
       </c>
       <c r="C365" s="3">
         <v>44294</v>
@@ -18389,7 +18389,7 @@
     </row>
     <row r="366">
       <c r="A366" s="2">
-        <v>44293.83333333333</v>
+        <v>44294.45833333333</v>
       </c>
       <c r="C366" s="3">
         <v>44294</v>
@@ -18437,7 +18437,7 @@
     </row>
     <row r="367">
       <c r="A367" s="2">
-        <v>44293.875</v>
+        <v>44294.5</v>
       </c>
       <c r="C367" s="3">
         <v>44294</v>
@@ -18485,7 +18485,7 @@
     </row>
     <row r="368">
       <c r="A368" s="2">
-        <v>44293.91666666667</v>
+        <v>44294.54166666667</v>
       </c>
       <c r="C368" s="3">
         <v>44294</v>
@@ -18533,7 +18533,7 @@
     </row>
     <row r="369">
       <c r="A369" s="2">
-        <v>44294.5</v>
+        <v>44295.125</v>
       </c>
       <c r="C369" s="3">
         <v>44294</v>
@@ -18581,7 +18581,7 @@
     </row>
     <row r="370">
       <c r="A370" s="2">
-        <v>44294.54166666667</v>
+        <v>44295.16666666667</v>
       </c>
       <c r="C370" s="3">
         <v>44294</v>
@@ -18629,7 +18629,7 @@
     </row>
     <row r="371">
       <c r="A371" s="2">
-        <v>44294.58333333333</v>
+        <v>44295.20833333333</v>
       </c>
       <c r="C371" s="3">
         <v>44294</v>
@@ -18677,7 +18677,7 @@
     </row>
     <row r="372">
       <c r="A372" s="2">
-        <v>44294.625</v>
+        <v>44295.25</v>
       </c>
       <c r="C372" s="3">
         <v>44294</v>
@@ -18725,7 +18725,7 @@
     </row>
     <row r="373">
       <c r="A373" s="2">
-        <v>44294.66666666667</v>
+        <v>44295.29166666667</v>
       </c>
       <c r="C373" s="3">
         <v>44295</v>
@@ -18773,7 +18773,7 @@
     </row>
     <row r="374">
       <c r="A374" s="2">
-        <v>44294.70833333333</v>
+        <v>44295.33333333333</v>
       </c>
       <c r="C374" s="3">
         <v>44295</v>
@@ -18821,7 +18821,7 @@
     </row>
     <row r="375">
       <c r="A375" s="2">
-        <v>44294.75</v>
+        <v>44295.375</v>
       </c>
       <c r="C375" s="3">
         <v>44295</v>
@@ -18869,7 +18869,7 @@
     </row>
     <row r="376">
       <c r="A376" s="2">
-        <v>44294.79166666667</v>
+        <v>44295.41666666667</v>
       </c>
       <c r="C376" s="3">
         <v>44295</v>
@@ -18917,7 +18917,7 @@
     </row>
     <row r="377">
       <c r="A377" s="2">
-        <v>44294.83333333333</v>
+        <v>44295.45833333333</v>
       </c>
       <c r="C377" s="3">
         <v>44295</v>
@@ -18965,7 +18965,7 @@
     </row>
     <row r="378">
       <c r="A378" s="2">
-        <v>44294.91666666667</v>
+        <v>44295.54166666667</v>
       </c>
       <c r="C378" s="3">
         <v>44295</v>
@@ -19013,7 +19013,7 @@
     </row>
     <row r="379">
       <c r="A379" s="2">
-        <v>44295.5</v>
+        <v>44296.125</v>
       </c>
       <c r="C379" s="3">
         <v>44295</v>
@@ -19061,7 +19061,7 @@
     </row>
     <row r="380">
       <c r="A380" s="2">
-        <v>44295.54166666667</v>
+        <v>44296.16666666667</v>
       </c>
       <c r="C380" s="3">
         <v>44295</v>
@@ -19109,7 +19109,7 @@
     </row>
     <row r="381">
       <c r="A381" s="2">
-        <v>44295.58333333333</v>
+        <v>44296.20833333333</v>
       </c>
       <c r="C381" s="3">
         <v>44295</v>
@@ -19157,7 +19157,7 @@
     </row>
     <row r="382">
       <c r="A382" s="2">
-        <v>44295.625</v>
+        <v>44296.25</v>
       </c>
       <c r="C382" s="3">
         <v>44295</v>
@@ -19205,7 +19205,7 @@
     </row>
     <row r="383">
       <c r="A383" s="2">
-        <v>44295.66666666667</v>
+        <v>44296.29166666667</v>
       </c>
       <c r="C383" s="3">
         <v>44296</v>
@@ -19253,7 +19253,7 @@
     </row>
     <row r="384">
       <c r="A384" s="2">
-        <v>44295.70833333333</v>
+        <v>44296.33333333333</v>
       </c>
       <c r="C384" s="3">
         <v>44296</v>
@@ -19301,7 +19301,7 @@
     </row>
     <row r="385">
       <c r="A385" s="2">
-        <v>44295.75</v>
+        <v>44296.375</v>
       </c>
       <c r="C385" s="3">
         <v>44296</v>
